--- a/datos/Crecimiento poblacion por fuente.xlsx
+++ b/datos/Crecimiento poblacion por fuente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moran\OneDrive\Escritorio\AUGUSTO\Maestria\Indicadores_socieconomicos\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\academico\Maestria\Indicadores Socioeconomicos\tp\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E121F23-E36D-4D98-AA08-0CADEC3263FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC3C23-BEB0-4A4B-A865-5EE0864F0244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6F47C6B8-32CB-4DE9-B006-0F566B688C5C}"/>
+    <workbookView xWindow="-20520" yWindow="1440" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{6F47C6B8-32CB-4DE9-B006-0F566B688C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Censo" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Provincia</t>
   </si>
@@ -149,19 +149,13 @@
   </si>
   <si>
     <t>Migración Neta</t>
-  </si>
-  <si>
-    <t>2,297,101</t>
-  </si>
-  <si>
-    <t>2,289,740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +170,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,6 +212,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,12 +553,12 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +573,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -587,7 +588,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -602,7 +603,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -617,7 +618,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -632,7 +633,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -647,7 +648,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -662,7 +663,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -677,7 +678,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -692,7 +693,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,7 +708,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -722,7 +723,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -737,7 +738,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -752,7 +753,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,7 +768,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -782,7 +783,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -797,7 +798,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -812,7 +813,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -827,7 +828,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -842,7 +843,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -857,7 +858,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -872,7 +873,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -887,7 +888,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -902,7 +903,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -917,7 +918,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -945,9 +946,9 @@
       <selection activeCell="B1" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -975,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -989,7 +990,7 @@
         <v>63.776000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>46.573999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>181.78700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>69.694999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>296.411</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>151.476</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>129.77699999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>94.361000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>91.918000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>28.756</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>43.997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>210.69499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>217.98599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>89.207999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>81.094999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>218.94399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>107.009</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>50.006999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>48.548000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>262.27300000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>136.18899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>24.824999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1304,15 +1305,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1F3DA-4FC2-41DC-8168-47C6E3396784}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,343 +1330,446 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
+      <c r="B2" s="2">
+        <v>2297101</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2289740</v>
       </c>
       <c r="D2" s="2">
         <v>-7.3609999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <f>C2/B2</f>
+        <v>0.99679552618713763</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6.04395522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>558.71900000000005</v>
+        <v>558719</v>
       </c>
       <c r="C3" s="2">
-        <v>440.47199999999998</v>
+        <v>440472</v>
       </c>
       <c r="D3" s="2">
         <v>-118.247</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="0">C3/B3</f>
+        <v>0.78836051754101799</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45.854999999999997</v>
+        <v>45855</v>
       </c>
       <c r="C4" s="2">
-        <v>47.750999999999998</v>
+        <v>47751</v>
       </c>
       <c r="D4" s="2">
         <v>1.8959999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.041347726529277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>114.964</v>
+        <v>114964</v>
       </c>
       <c r="C5" s="2">
-        <v>113.602</v>
+        <v>113602</v>
       </c>
       <c r="D5" s="2">
         <v>-1.3620000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.98815281305452141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>90.944999999999993</v>
+        <v>90945</v>
       </c>
       <c r="C6" s="2">
-        <v>96.513000000000005</v>
+        <v>96513</v>
       </c>
       <c r="D6" s="2">
         <v>5.5679999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.0612238165924459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>416.68400000000003</v>
+        <v>416684</v>
       </c>
       <c r="C7" s="2">
-        <v>464.04300000000001</v>
+        <v>464043</v>
       </c>
       <c r="D7" s="2">
         <v>47.359000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.11365687187413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>139.04599999999999</v>
+        <v>139046</v>
       </c>
       <c r="C8" s="2">
-        <v>149.33500000000001</v>
+        <v>149335</v>
       </c>
       <c r="D8" s="2">
         <v>10.289</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.0739970944867165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>108.45399999999999</v>
+        <v>108454</v>
       </c>
       <c r="C9" s="2">
-        <v>119.724</v>
+        <v>119724</v>
       </c>
       <c r="D9" s="2">
         <v>11.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.1039150238810924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>77.75</v>
+        <v>77750</v>
       </c>
       <c r="C10" s="2">
-        <v>76.277000000000001</v>
+        <v>76277</v>
       </c>
       <c r="D10" s="2">
         <v>-1.4730000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.98105466237942118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>82.623999999999995</v>
+        <v>82624</v>
       </c>
       <c r="C11" s="2">
-        <v>90.594999999999999</v>
+        <v>90595</v>
       </c>
       <c r="D11" s="2">
         <v>7.9710000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.0964731797056546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>52.527000000000001</v>
+        <v>52527</v>
       </c>
       <c r="C12" s="2">
-        <v>57.850999999999999</v>
+        <v>57851</v>
       </c>
       <c r="D12" s="2">
         <v>5.3239999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.1013573971481334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>43.488</v>
+        <v>43488</v>
       </c>
       <c r="C13" s="2">
-        <v>42.655999999999999</v>
+        <v>42656</v>
       </c>
       <c r="D13" s="2">
         <v>-832</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.98086828550404714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>244.59100000000001</v>
+        <v>244591</v>
       </c>
       <c r="C14" s="2">
-        <v>241.50899999999999</v>
+        <v>241509</v>
       </c>
       <c r="D14" s="2">
         <v>-3.0819999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.98739937283056201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>185.607</v>
+        <v>185607</v>
       </c>
       <c r="C15" s="2">
-        <v>188.91900000000001</v>
+        <v>188919</v>
       </c>
       <c r="D15" s="2">
         <v>3.3119999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.017844154584687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>101.258</v>
+        <v>101258</v>
       </c>
       <c r="C16" s="2">
-        <v>125.873</v>
+        <v>125873</v>
       </c>
       <c r="D16" s="2">
         <v>24.614999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.2430919038495725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>97.116</v>
+        <v>97116</v>
       </c>
       <c r="C17" s="2">
-        <v>120.741</v>
+        <v>120741</v>
       </c>
       <c r="D17" s="2">
         <v>23.625</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.2432657852465094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>180.75700000000001</v>
+        <v>180757</v>
       </c>
       <c r="C18" s="2">
-        <v>174.09700000000001</v>
+        <v>174097</v>
       </c>
       <c r="D18" s="2">
         <v>-6.66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.96315495388836947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>100.09399999999999</v>
+        <v>100094</v>
       </c>
       <c r="C19" s="2">
-        <v>100.52200000000001</v>
+        <v>100522</v>
       </c>
       <c r="D19" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.0042759805782564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>55.523000000000003</v>
+        <v>55523</v>
       </c>
       <c r="C20" s="2">
-        <v>73.896000000000001</v>
+        <v>73896</v>
       </c>
       <c r="D20" s="2">
         <v>18.373000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.3309079120364533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>93.057000000000002</v>
+        <v>93057</v>
       </c>
       <c r="C21" s="2">
-        <v>75.284999999999997</v>
+        <v>75285</v>
       </c>
       <c r="D21" s="2">
         <v>-17.771999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.80902027789419384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>242.88200000000001</v>
+        <v>242882</v>
       </c>
       <c r="C22" s="2">
-        <v>244.90600000000001</v>
+        <v>244906</v>
       </c>
       <c r="D22" s="2">
         <v>2.024</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.008333264712906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>96.135999999999996</v>
+        <v>96136</v>
       </c>
       <c r="C23" s="2">
-        <v>95.807000000000002</v>
+        <v>95807</v>
       </c>
       <c r="D23" s="2">
         <v>-329</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.99657776483315308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>50.628999999999998</v>
+        <v>50629</v>
       </c>
       <c r="C24" s="2">
-        <v>49.41</v>
+        <v>49410</v>
       </c>
       <c r="D24" s="2">
         <v>-1.2190000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.97592289004325583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>152.999</v>
+        <v>152999</v>
       </c>
       <c r="C25" s="2">
-        <v>152.21700000000001</v>
+        <v>152217</v>
       </c>
       <c r="D25" s="2">
         <v>-782</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.99488885548271555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>